--- a/UTS/Andri Firman Saputra - 201011402125 - UTS SPK.xlsx
+++ b/UTS/Andri Firman Saputra - 201011402125 - UTS SPK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\semester 7\spk\uts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\semester 7\spk\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE073CFD-6A69-4852-AE97-FBDC43B8A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD4835-DE9D-4238-AB9E-7EAB420D29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68E6060E-666C-4768-A0FD-7F510B0E59CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Harga (H)</t>
   </si>
@@ -72,24 +72,6 @@
     <t>P10</t>
   </si>
   <si>
-    <t>5.5"</t>
-  </si>
-  <si>
-    <t>5.0"</t>
-  </si>
-  <si>
-    <t>6.0"</t>
-  </si>
-  <si>
-    <t>6.2"</t>
-  </si>
-  <si>
-    <t>6.5"</t>
-  </si>
-  <si>
-    <t>6.1"</t>
-  </si>
-  <si>
     <t>Harga</t>
   </si>
   <si>
@@ -210,44 +192,6 @@
     <t>Tertinggi</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Nilai Tertinggi adalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dengan Nilai Preferensinya adalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,107849968</t>
-    </r>
-  </si>
-  <si>
     <t>ID Ponsel</t>
   </si>
   <si>
@@ -267,17 +211,21 @@
   </si>
   <si>
     <t>SPK</t>
+  </si>
+  <si>
+    <t>Nilai tertinggi adalah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -408,7 +356,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,14 +376,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,7 +398,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -957,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B244D-911D-45BE-82A7-5139286C9D27}">
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,18 +924,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1003,10 +953,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1025,14 +975,14 @@
       <c r="F3" s="1">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
+      <c r="G3" s="21">
+        <v>5.5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1051,14 +1001,14 @@
       <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
+      <c r="G4" s="21">
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1077,8 +1027,8 @@
       <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
+      <c r="G5" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1097,8 +1047,8 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
+      <c r="G6" s="21">
+        <v>6.2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1117,8 +1067,8 @@
       <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
+      <c r="G7" s="21">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1137,8 +1087,8 @@
       <c r="F8" s="1">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
+      <c r="G8" s="21">
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1157,8 +1107,8 @@
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
+      <c r="G9" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1177,8 +1127,8 @@
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
+      <c r="G10" s="21">
+        <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1197,8 +1147,8 @@
       <c r="F11" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
+      <c r="G11" s="21">
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1217,20 +1167,20 @@
       <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
+      <c r="G12" s="21">
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="5">
@@ -1239,7 +1189,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="5">
@@ -1248,7 +1198,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="5">
@@ -1257,7 +1207,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="5">
@@ -1266,7 +1216,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="5">
@@ -1275,7 +1225,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="4">
@@ -1284,24 +1234,24 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5">
         <f>D15/D20</f>
@@ -1310,7 +1260,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5">
         <f>D16/D20</f>
@@ -1319,7 +1269,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5">
         <f>D17/D20</f>
@@ -1328,7 +1278,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5">
         <f>D18/D20</f>
@@ -1337,7 +1287,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5">
         <f>D19/D20</f>
@@ -1346,7 +1296,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5">
         <f>SUM(C25:C29)</f>
@@ -1354,23 +1304,23 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>0</v>
@@ -1388,26 +1338,31 @@
         <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C37" s="8">
+        <f>C3</f>
         <v>5000000</v>
       </c>
       <c r="D37" s="1">
+        <f>D3</f>
         <v>8</v>
       </c>
       <c r="E37" s="7">
+        <f>E3</f>
         <v>4000</v>
       </c>
       <c r="F37" s="1">
+        <f>F3</f>
         <v>9</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="1">
+        <f>G3</f>
         <v>5.5</v>
       </c>
       <c r="H37" s="6">
@@ -1417,21 +1372,26 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C38" s="8">
+        <f t="shared" ref="C38:G38" si="0">C4</f>
         <v>4500000</v>
       </c>
       <c r="D38" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E38" s="7">
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H38" s="6">
@@ -1441,21 +1401,26 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C39" s="8">
+        <f t="shared" ref="C39:G39" si="1">C5</f>
         <v>6000000</v>
       </c>
       <c r="D39" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E39" s="7">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H39" s="6">
@@ -1465,169 +1430,204 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8">
+        <f t="shared" ref="C40:G40" si="2">C6</f>
         <v>5500000</v>
       </c>
       <c r="D40" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E40" s="7">
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" ref="H40:H46" si="0">(C40^-$C$25)*(D40^$C$26)*(E40^$C$27)*(F40^$C$28)*(G40^$C$29)</f>
+        <f t="shared" ref="H40:H46" si="3">(C40^-$C$25)*(D40^$C$26)*(E40^$C$27)*(F40^$C$28)*(G40^$C$29)</f>
         <v>0.73891202526584576</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C41" s="8">
+        <f t="shared" ref="C41:G41" si="4">C7</f>
         <v>4000000</v>
       </c>
       <c r="D41" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E41" s="7">
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.75430928817785481</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C42" s="8">
+        <f t="shared" ref="C42:G42" si="5">C8</f>
         <v>7000000</v>
       </c>
       <c r="D42" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="E42" s="7">
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="1">
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.79935284131401785</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C43" s="8">
+        <f t="shared" ref="C43:G43" si="6">C9</f>
         <v>5500000</v>
       </c>
       <c r="D43" s="1">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E43" s="7">
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="1">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.71296352271954688</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8">
+        <f t="shared" ref="C44:G44" si="7">C10</f>
         <v>6500000</v>
       </c>
       <c r="D44" s="1">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="E44" s="7">
+        <f t="shared" si="7"/>
         <v>3500</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="1">
+        <f t="shared" si="7"/>
         <v>6.1</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.75525530641945848</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C45" s="8">
+        <f t="shared" ref="C45:G45" si="8">C11</f>
         <v>6000000</v>
       </c>
       <c r="D45" s="1">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E45" s="7">
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="1">
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.73253615011654494</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C46" s="8">
+        <f t="shared" ref="C46:G46" si="9">C12</f>
         <v>5000000</v>
       </c>
       <c r="D46" s="1">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E46" s="7">
+        <f t="shared" si="9"/>
         <v>3500</v>
       </c>
       <c r="F46" s="1">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="1">
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.75468499203797412</v>
       </c>
     </row>
@@ -1637,137 +1637,139 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
         <f>H37/SUM($H$37:$H$46)</f>
         <v>0.10784996810892961</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ref="C53:C61" si="10">H38/SUM($H$37:$H$46)</f>
+        <v>0.10002756071667461</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="10"/>
+        <v>0.10123651512684595</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="10"/>
+        <v>9.7275641556807901E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="10"/>
+        <v>9.9302646906254829E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="10"/>
+        <v>0.10523250104246543</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="10"/>
+        <v>9.3859595875697838E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" ref="C53:C61" si="1">H38/SUM($H$37:$H$46)</f>
-        <v>0.10002756071667461</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="C59" s="1">
+        <f t="shared" si="10"/>
+        <v>9.9427187485146243E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" si="1"/>
-        <v>0.10123651512684595</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="C60" s="1">
+        <f t="shared" si="10"/>
+        <v>9.643627594300401E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7275641556807901E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="C61" s="1">
+        <f t="shared" si="10"/>
+        <v>9.935210723817367E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9302646906254829E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="1"/>
-        <v>0.10523250104246543</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="1"/>
-        <v>9.3859595875697838E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9427187485146243E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="1"/>
-        <v>9.643627594300401E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="1"/>
-        <v>9.935210723817367E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="C62" s="12">
         <f>MAX(C52:C61)</f>
         <v>0.10784996810892961</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23" t="str">
+        <f>INDEX(B52:B61, MATCH(MAX(C52:C61), C52:C61, 0))</f>
+        <v>V1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B48:C50"/>
-    <mergeCell ref="B64:E64"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C23"/>
